--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.89761366666667</v>
+        <v>10.587229</v>
       </c>
       <c r="H2">
-        <v>38.692841</v>
+        <v>31.761687</v>
       </c>
       <c r="I2">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="J2">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N2">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q2">
-        <v>1819.30338141117</v>
+        <v>0.4158522388146667</v>
       </c>
       <c r="R2">
-        <v>16373.73043270053</v>
+        <v>3.742670149332</v>
       </c>
       <c r="S2">
-        <v>0.1278084469537726</v>
+        <v>0.09963976043075852</v>
       </c>
       <c r="T2">
-        <v>0.1278084469537726</v>
+        <v>0.09963976043075853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.89761366666667</v>
+        <v>10.587229</v>
       </c>
       <c r="H3">
-        <v>38.692841</v>
+        <v>31.761687</v>
       </c>
       <c r="I3">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="J3">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N3">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q3">
-        <v>24.44626591993667</v>
+        <v>0.1436510521483333</v>
       </c>
       <c r="R3">
-        <v>220.01639327943</v>
+        <v>1.292859469335</v>
       </c>
       <c r="S3">
-        <v>0.001717382220563195</v>
+        <v>0.03441933236306414</v>
       </c>
       <c r="T3">
-        <v>0.001717382220563195</v>
+        <v>0.03441933236306414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>53.097706</v>
       </c>
       <c r="I4">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="J4">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N4">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q4">
-        <v>2496.607475035916</v>
+        <v>0.6952023649128889</v>
       </c>
       <c r="R4">
-        <v>22469.46727532324</v>
+        <v>6.256821284216</v>
       </c>
       <c r="S4">
-        <v>0.1753899472170579</v>
+        <v>0.1665731012733313</v>
       </c>
       <c r="T4">
-        <v>0.1753899472170579</v>
+        <v>0.1665731012733313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>53.097706</v>
       </c>
       <c r="I5">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="J5">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N5">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q5">
-        <v>33.54730764315334</v>
+        <v>0.2401491247477778</v>
       </c>
       <c r="R5">
-        <v>301.9257687883801</v>
+        <v>2.16134212273</v>
       </c>
       <c r="S5">
-        <v>0.002356742329597656</v>
+        <v>0.05754063348493627</v>
       </c>
       <c r="T5">
-        <v>0.002356742329597656</v>
+        <v>0.05754063348493627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.809555</v>
+        <v>34.22308866666667</v>
       </c>
       <c r="H6">
-        <v>116.428665</v>
+        <v>102.669266</v>
       </c>
       <c r="I6">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="J6">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N6">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O6">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P6">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q6">
-        <v>5474.373513376501</v>
+        <v>1.344237292041778</v>
       </c>
       <c r="R6">
-        <v>49269.36162038852</v>
+        <v>12.098135628376</v>
       </c>
       <c r="S6">
-        <v>0.3845819141207817</v>
+        <v>0.322084310818938</v>
       </c>
       <c r="T6">
-        <v>0.3845819141207817</v>
+        <v>0.322084310818938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.809555</v>
+        <v>34.22308866666667</v>
       </c>
       <c r="H7">
-        <v>116.428665</v>
+        <v>102.669266</v>
       </c>
       <c r="I7">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="J7">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N7">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O7">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P7">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q7">
-        <v>73.56001864255002</v>
+        <v>0.4643502747255556</v>
       </c>
       <c r="R7">
-        <v>662.0401677829502</v>
+        <v>4.17915247253</v>
       </c>
       <c r="S7">
-        <v>0.005167687718637884</v>
+        <v>0.111260072235012</v>
       </c>
       <c r="T7">
-        <v>0.005167687718637883</v>
+        <v>0.111260072235012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.16920766666667</v>
+        <v>16.46479166666667</v>
       </c>
       <c r="H8">
-        <v>90.507623</v>
+        <v>49.394375</v>
       </c>
       <c r="I8">
-        <v>0.302977879439589</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="J8">
-        <v>0.3029778794395889</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N8">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O8">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P8">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q8">
-        <v>4255.588897372188</v>
+        <v>0.6467150636111111</v>
       </c>
       <c r="R8">
-        <v>38300.30007634969</v>
+        <v>5.820435572499999</v>
       </c>
       <c r="S8">
-        <v>0.2989606974868438</v>
+        <v>0.1549553615217935</v>
       </c>
       <c r="T8">
-        <v>0.2989606974868438</v>
+        <v>0.1549553615217935</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.16920766666667</v>
+        <v>16.46479166666667</v>
       </c>
       <c r="H9">
-        <v>90.507623</v>
+        <v>49.394375</v>
       </c>
       <c r="I9">
-        <v>0.302977879439589</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="J9">
-        <v>0.3029778794395889</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N9">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O9">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P9">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q9">
-        <v>57.18301790347667</v>
+        <v>0.2233997815972222</v>
       </c>
       <c r="R9">
-        <v>514.6471611312901</v>
+        <v>2.010598034375</v>
       </c>
       <c r="S9">
-        <v>0.004017181952745122</v>
+        <v>0.05352742787216642</v>
       </c>
       <c r="T9">
-        <v>0.004017181952745121</v>
+        <v>0.05352742787216642</v>
       </c>
     </row>
   </sheetData>
